--- a/HupHin_ServiceRequest_Creation/Data/Config.xlsx
+++ b/HupHin_ServiceRequest_Creation/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komal\Documents\UiPath\HupHin_ServiceRequest_Creation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\HupHin_Git\HupHin_ServiceRequest_Creation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936928E8-2CDB-425C-AD9E-C23791463855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE52252-6AEE-4429-9DC1-B522E7203313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,9 @@
     <t>EmailBody</t>
   </si>
   <si>
+    <t>Dear user,&lt;br&gt; BOT has processed all the records successfully.&lt;br&gt; Please see the google sheet for more details.&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
     <t>Excp_EmailTo</t>
   </si>
   <si>
@@ -386,6 +389,18 @@
     <t>Can't access gsuit application. Not able to read google sheet</t>
   </si>
   <si>
+    <t>ExcpActionColMatch</t>
+  </si>
+  <si>
+    <t>Action column is matched with Job Status</t>
+  </si>
+  <si>
+    <t>ExcpAssetIsssue</t>
+  </si>
+  <si>
+    <t>Something is wrong while adding asset. BOT is not able to add asset due to some error</t>
+  </si>
+  <si>
     <t>RetryNumberGetTransactionItem</t>
   </si>
   <si>
@@ -407,6 +422,15 @@
     <t>Timeout1</t>
   </si>
   <si>
+    <t>Timeout2</t>
+  </si>
+  <si>
+    <t>Timeout3</t>
+  </si>
+  <si>
+    <t>DelayAfter</t>
+  </si>
+  <si>
     <t>ShouldMarkJobAsFaulted</t>
   </si>
   <si>
@@ -515,6 +539,9 @@
     <t>PendingCol</t>
   </si>
   <si>
+    <t>Pending, Attendant,SUPPLIER EQUIPMENT,OTHER SERVICE / EQUIPMENT</t>
+  </si>
+  <si>
     <t>CellNumber</t>
   </si>
   <si>
@@ -527,6 +554,51 @@
     <t>Vehicle Type</t>
   </si>
   <si>
+    <t>Today_DateCell</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>TodayValue</t>
+  </si>
+  <si>
+    <t>BotStatusColName</t>
+  </si>
+  <si>
+    <t>BOT STATUS</t>
+  </si>
+  <si>
+    <t>ActionCol</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>ActionStatus</t>
+  </si>
+  <si>
+    <t>ScreenshotPath</t>
+  </si>
+  <si>
+    <t>C:\Users\Komal\Documents\ExceptinScreenshot</t>
+  </si>
+  <si>
+    <t>DateCol</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>RetryForCustomerName</t>
+  </si>
+  <si>
+    <t>FirstColumn</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
     <t>Asset</t>
   </si>
   <si>
@@ -545,79 +617,16 @@
     <t>JOB STATUS</t>
   </si>
   <si>
-    <t>BOT STATUS</t>
-  </si>
-  <si>
     <t>REMARKS</t>
   </si>
   <si>
-    <t>Dear user,&lt;br&gt; BOT has processed all the records successfully.&lt;br&gt; Please see the google sheet for more details.&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Pending, Attendant,SUPPLIER EQUIPMENT,OTHER SERVICE / EQUIPMENT</t>
-  </si>
-  <si>
-    <t>Timeout2</t>
-  </si>
-  <si>
-    <t>Today_DateCell</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>TodayValue</t>
-  </si>
-  <si>
-    <t>ExcpActionColMatch</t>
-  </si>
-  <si>
-    <t>Action column is matched with Job Status</t>
-  </si>
-  <si>
-    <t>BotStatusColName</t>
-  </si>
-  <si>
-    <t>ActionCol</t>
-  </si>
-  <si>
-    <t>ActionStatus</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>Timeout3</t>
-  </si>
-  <si>
-    <t>DelayAfter</t>
-  </si>
-  <si>
-    <t>ScreenshotPath</t>
-  </si>
-  <si>
-    <t>C:\Users\Komal\Documents\ExceptinScreenshot</t>
-  </si>
-  <si>
-    <t>ExcpAssetIsssue</t>
-  </si>
-  <si>
-    <t>Something is wrong while adding asset. BOT is not able to add asset due to some error</t>
-  </si>
-  <si>
-    <t>DateCol</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>RetryForCustomerName</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>FirstColumn</t>
+    <t>ExcpMsg_datenotFound</t>
+  </si>
+  <si>
+    <t>Could not find mentioned date on portal for assigning driver</t>
+  </si>
+  <si>
+    <t>04/25/2023</t>
   </si>
 </sst>
 </file>
@@ -701,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -718,12 +727,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1041,16 +1049,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1202,12 +1210,12 @@
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1215,31 +1223,31 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.5" customHeight="1">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2230,18 +2238,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2280,612 +2288,619 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="45" customHeight="1">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="57.75" customHeight="1">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="57.75" customHeight="1">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="57.75" customHeight="1">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.5" customHeight="1">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.75" customHeight="1">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30.75" customHeight="1">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-    </row>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B40">
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B41">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="B42">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="B43">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B44">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45">
         <v>2000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45" customHeight="1">
-      <c r="A45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" t="b">
+    <row r="46" spans="1:3" ht="45" customHeight="1">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="b">
         <v>0</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="63" customHeight="1">
+      <c r="C46" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.4" customHeight="1">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
-    </row>
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="63" customHeight="1">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" t="s">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56">
-        <v>62621525</v>
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" t="s">
-        <v>132</v>
+        <v>138</v>
+      </c>
+      <c r="B57">
+        <v>62621525</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B70" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A71" s="10" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A74" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A72" s="10" t="s">
+      <c r="B74" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A76" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A73" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B73" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A74" s="10" t="s">
+      <c r="B76" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A78" t="s">
         <v>176</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A75" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A76" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A77" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
@@ -3815,6 +3830,7 @@
     <row r="1005" ht="14.25" customHeight="1"/>
     <row r="1006" ht="14.25" customHeight="1"/>
     <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3828,12 +3844,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3841,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4885,31 +4901,31 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/HupHin_ServiceRequest_Creation/Data/Config.xlsx
+++ b/HupHin_ServiceRequest_Creation/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\HupHin_Git\HupHin_ServiceRequest_Creation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE52252-6AEE-4429-9DC1-B522E7203313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747A8C83-3C9A-4B39-8A0C-2D98E8755180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Vehicle to Process" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -101,21 +102,12 @@
     <t>Client_ID</t>
   </si>
   <si>
-    <t>164708840988-0rf53fhavr3iugtbprrfkjoor90ggq8n.apps.googleusercontent.com</t>
-  </si>
-  <si>
     <t>Client_Secret</t>
   </si>
   <si>
-    <t>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</t>
-  </si>
-  <si>
     <t>SDMS_Cred</t>
   </si>
   <si>
-    <t>SDMS Login</t>
-  </si>
-  <si>
     <t>SDMS URL</t>
   </si>
   <si>
@@ -152,15 +144,9 @@
     <t>EmailSub</t>
   </si>
   <si>
-    <t>Hup Hin Data processed successfully</t>
-  </si>
-  <si>
     <t>EmailBody</t>
   </si>
   <si>
-    <t>Dear user,&lt;br&gt; BOT has processed all the records successfully.&lt;br&gt; Please see the google sheet for more details.&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
     <t>Excp_EmailTo</t>
   </si>
   <si>
@@ -191,9 +177,6 @@
     <t>Today</t>
   </si>
   <si>
-    <t>Provide date in MM/dd/yyyy format</t>
-  </si>
-  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -284,9 +267,6 @@
     <t>ExcpMsg_DriveFileNotFound</t>
   </si>
   <si>
-    <t>Current month file is missing from google drive current yer folder. Please place spreadsheet under Daily sales-&gt;Current year folder-&gt;</t>
-  </si>
-  <si>
     <t>Excp_Generic</t>
   </si>
   <si>
@@ -296,9 +276,6 @@
     <t>Log_LoginPageNotFound</t>
   </si>
   <si>
-    <t>SDMS Login page not loaded successfully. Please check login URL</t>
-  </si>
-  <si>
     <t>LogMessage_IncalidCred</t>
   </si>
   <si>
@@ -344,21 +321,12 @@
     <t>ExcpMsg_VehNotFound</t>
   </si>
   <si>
-    <t>Bot is not able to find the below vehicle number in SDMS website to assign driver.</t>
-  </si>
-  <si>
     <t>ExcpMsg_DriverNotFound</t>
   </si>
   <si>
-    <t>Bot is not able to find the below driver name in SDMS website.</t>
-  </si>
-  <si>
     <t>ExcpMsg_DriverNumberInvalid</t>
   </si>
   <si>
-    <t>Below driver number is not on whatsapp. Please check the number</t>
-  </si>
-  <si>
     <t>ExcpMsg_JobNoMissing</t>
   </si>
   <si>
@@ -452,9 +420,6 @@
     <t>VehicleType</t>
   </si>
   <si>
-    <t>MOBILE CRANE,ATTENDANT,ROUGH TERRAIN,CRAWLER CRANE, TOW TRUCK,LORRY CRANE, PRIME MOVER,SUPPLIER EQUIPMENT,OTHER SERVICE / EQUIPMENT, PENDING</t>
-  </si>
-  <si>
     <t>Notificaion</t>
   </si>
   <si>
@@ -467,12 +432,6 @@
     <t>Mandatory Columns</t>
   </si>
   <si>
-    <t>START,END,TAKEN BY,CUSTOMER,JOB SITE 1,SITE 1 CON,SITE 1 NO</t>
-  </si>
-  <si>
-    <t>send it angie</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -581,9 +540,6 @@
     <t>ScreenshotPath</t>
   </si>
   <si>
-    <t>C:\Users\Komal\Documents\ExceptinScreenshot</t>
-  </si>
-  <si>
     <t>DateCol</t>
   </si>
   <si>
@@ -608,25 +564,115 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>RECORD ID</t>
-  </si>
-  <si>
-    <t>JOB NUMBER</t>
-  </si>
-  <si>
-    <t>JOB STATUS</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
     <t>ExcpMsg_datenotFound</t>
   </si>
   <si>
     <t>Could not find mentioned date on portal for assigning driver</t>
   </si>
   <si>
-    <t>04/25/2023</t>
+    <t>UpdateReq_Text</t>
+  </si>
+  <si>
+    <t>CancelReq_Text</t>
+  </si>
+  <si>
+    <t>This order has been updated.</t>
+  </si>
+  <si>
+    <t>This order has been canceled.</t>
+  </si>
+  <si>
+    <t>Vehicle number not found in SDMS</t>
+  </si>
+  <si>
+    <t>Driver number is not on whatsapp</t>
+  </si>
+  <si>
+    <t>Ops_SdmsCred</t>
+  </si>
+  <si>
+    <t>Hup Hin Operations Data has been processed successfully</t>
+  </si>
+  <si>
+    <t>SDMS Login failed due to some error</t>
+  </si>
+  <si>
+    <t>139368056348-9sdrvnb0pn86dtnops6qa5mpkacpjlfe.apps.googleusercontent.com</t>
+  </si>
+  <si>
+    <t>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</t>
+  </si>
+  <si>
+    <t>C:\Users\Finance Laptop\Documents\ExceptionScreenshot</t>
+  </si>
+  <si>
+    <t>Current month file is missing from google drive current year folder. Please place spreadsheet under Daily sales-&gt;Current year folder-&gt;</t>
+  </si>
+  <si>
+    <t>ACTION,VEH NO,DRIVER,TEL NO,START,END,TYPE,CUSTOMER,JOB SITE 1,SITE 1 CON,SITE 1 NO</t>
+  </si>
+  <si>
+    <t>EmailBody1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,&lt;br&gt; BOT has processed </t>
+  </si>
+  <si>
+    <t>records from google sheet successfully.&lt;br&gt; Please see the google sheet for more details.&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Bot_TimeCell</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Following Vehicle name not present in google sheet</t>
+  </si>
+  <si>
+    <t>ExcpMsg_VehNameNotPresent</t>
+  </si>
+  <si>
+    <t>Process Record</t>
+  </si>
+  <si>
+    <t>ROUGH TERRAIN</t>
+  </si>
+  <si>
+    <t>MOBILE CRANE</t>
+  </si>
+  <si>
+    <t>CRAWLER CRANE</t>
+  </si>
+  <si>
+    <t>TOW TRUCK</t>
+  </si>
+  <si>
+    <t>LORRY CRANE</t>
+  </si>
+  <si>
+    <t>PRIME MOVER</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>These vehicle type BOT will not prcess</t>
+  </si>
+  <si>
+    <t>Name of all vehicle types present in google sheet</t>
+  </si>
+  <si>
+    <t>MOBILE CRANE,ATTENDANT,ROUGH TERRAIN,CRAWLER CRANE, TOW TRUCK,LORRY CRANE,PRIME MOVER,SUPPLIER EQUIPMENT,OTHER SERVICE / EQUIPMENT, PENDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver name not found in SDMS. </t>
+  </si>
+  <si>
+    <t>Provide date in 'MM/dd/yyyy format</t>
   </si>
 </sst>
 </file>
@@ -689,15 +735,21 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -705,12 +757,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -732,6 +799,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1047,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1132,125 +1204,132 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="41.25" customHeight="1">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="41.25" customHeight="1">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
+        <v>182</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.5" customHeight="1">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="43.5" customHeight="1">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2225,6 +2304,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -2238,7 +2318,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2288,637 +2368,668 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="45" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="57.75" customHeight="1">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="57.75" customHeight="1">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="57.75" customHeight="1">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.5" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.2" customHeight="1">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="39.75" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" customHeight="1">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30.75" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="22.8" customHeight="1">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-    </row>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B41">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B42">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B43">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B44">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B45">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46">
         <v>2000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="45" customHeight="1">
-      <c r="A46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" t="b">
+    <row r="47" spans="1:3" ht="45" customHeight="1">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" t="b">
         <v>0</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.4" customHeight="1">
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="63" customHeight="1">
+      <c r="C47" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.4" customHeight="1">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A53" t="s">
-        <v>130</v>
-      </c>
-    </row>
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="63" customHeight="1">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" t="s">
-        <v>135</v>
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" t="s">
-        <v>137</v>
+        <v>121</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57">
-        <v>62621525</v>
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" t="s">
-        <v>140</v>
+        <v>124</v>
+      </c>
+      <c r="B58">
+        <v>62621525</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" t="s">
-        <v>148</v>
+        <v>131</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A73" t="s">
         <v>151</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A74" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A65" t="s">
+      <c r="B74" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A66" t="s">
+      <c r="B75" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A76" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A67" t="s">
+      <c r="B76" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A77" t="s">
         <v>157</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A78" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A68" t="s">
+      <c r="B78" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A79" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A69" t="s">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B80" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A70" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A71" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A72" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A73" t="s">
+    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A81" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A82" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A74" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A75" t="s">
+      <c r="B82" t="s">
         <v>171</v>
       </c>
-      <c r="B75" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A76" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A77" t="s">
-        <v>175</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A78" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="94" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -3831,6 +3942,8 @@
     <row r="1006" ht="14.25" customHeight="1"/>
     <row r="1007" ht="14.25" customHeight="1"/>
     <row r="1008" ht="14.25" customHeight="1"/>
+    <row r="1009" ht="14.25" customHeight="1"/>
+    <row r="1010" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3857,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4895,7 +5008,94 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED18970-5A4F-47C3-860E-9046BA820E9F}">
-  <dimension ref="B4:B8"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{862DA62A-21FC-43FB-AB6A-0902E9D81D51}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$7:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7748BB79-6BD0-4BEC-9ABC-853D1BC69879}">
+  <dimension ref="A7:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -4903,29 +5103,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>184</v>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/HupHin_ServiceRequest_Creation/Data/Config.xlsx
+++ b/HupHin_ServiceRequest_Creation/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\HupHin_Git\HupHin_ServiceRequest_Creation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747A8C83-3C9A-4B39-8A0C-2D98E8755180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C73E58C-B0E0-4D21-B25B-674A5168573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="206">
   <si>
     <t>Name</t>
   </si>
@@ -609,9 +609,6 @@
     <t>Current month file is missing from google drive current year folder. Please place spreadsheet under Daily sales-&gt;Current year folder-&gt;</t>
   </si>
   <si>
-    <t>ACTION,VEH NO,DRIVER,TEL NO,START,END,TYPE,CUSTOMER,JOB SITE 1,SITE 1 CON,SITE 1 NO</t>
-  </si>
-  <si>
     <t>EmailBody1</t>
   </si>
   <si>
@@ -673,6 +670,18 @@
   </si>
   <si>
     <t>Provide date in 'MM/dd/yyyy format</t>
+  </si>
+  <si>
+    <t>ACTION,VEH NO,DRIVER,TERM,TEL NO,START,END,TYPE,CUSTOMER,JOB SITE 1,SITE 1 CON,SITE 1 NO</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg</t>
+  </si>
+  <si>
+    <t>Edit button not found while assigning driver</t>
+  </si>
+  <si>
+    <t>ExcpMsg_EditButton</t>
   </si>
 </sst>
 </file>
@@ -777,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -803,6 +812,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1121,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1130,7 +1142,8 @@
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1230,6 +1243,12 @@
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
@@ -1282,15 +1301,15 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="41.25" customHeight="1">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
@@ -2308,20 +2327,22 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D10" r:id="rId2" tooltip="https://hhtc.insightservicing.sg/" display="https://hhtc.insightservicing.sg/" xr:uid="{9DECC8E1-963F-4F0E-9ED6-7BB59D349BDE}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{22B63AC4-5A18-49A4-9E1C-BE72EA17D8AF}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{B379FD24-C2EC-4DF6-AAAA-502F3EDCACE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1010"/>
+  <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -2374,7 +2395,7 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1">
@@ -2587,7 +2608,7 @@
         <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="22.8" customHeight="1">
@@ -2664,359 +2685,366 @@
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-    </row>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42">
-        <v>5000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" t="s">
         <v>110</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45" customHeight="1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" ht="45" customHeight="1">
+      <c r="A48" t="s">
         <v>111</v>
       </c>
-      <c r="B47" t="b">
+      <c r="B48" t="b">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.4" customHeight="1">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" ht="14.4" customHeight="1">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
         <v>115</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="63" customHeight="1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" ht="63" customHeight="1">
+      <c r="A53" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-    </row>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>181</v>
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58">
-        <v>62621525</v>
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="B59">
+        <v>62621525</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="9" t="b">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" t="s">
-        <v>179</v>
+        <v>156</v>
+      </c>
+      <c r="B77" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
       <c r="A82" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A83" t="s">
         <v>169</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3944,6 +3972,7 @@
     <row r="1008" ht="14.25" customHeight="1"/>
     <row r="1009" ht="14.25" customHeight="1"/>
     <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5025,55 +5054,55 @@
         <v>148</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5105,12 +5134,12 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/HupHin_ServiceRequest_Creation/Data/Config.xlsx
+++ b/HupHin_ServiceRequest_Creation/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\HupHin_Git\HupHin_ServiceRequest_Creation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C73E58C-B0E0-4D21-B25B-674A5168573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285BB0E1-70EC-4D01-B9ED-1AF298FEAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -576,12 +576,6 @@
     <t>CancelReq_Text</t>
   </si>
   <si>
-    <t>This order has been updated.</t>
-  </si>
-  <si>
-    <t>This order has been canceled.</t>
-  </si>
-  <si>
     <t>Vehicle number not found in SDMS</t>
   </si>
   <si>
@@ -682,13 +676,19 @@
   </si>
   <si>
     <t>ExcpMsg_EditButton</t>
+  </si>
+  <si>
+    <t>THIS ORDER HAS BEEN UPDATED</t>
+  </si>
+  <si>
+    <t>THIS ORDER HAS BEEN CANCELED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -743,6 +743,13 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -786,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -816,6 +823,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1133,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1217,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1225,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1233,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1247,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1293,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="41.25" customHeight="1">
@@ -1301,15 +1309,15 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="41.25" customHeight="1">
       <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
@@ -2341,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -2395,7 +2403,7 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1">
@@ -2520,7 +2528,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
@@ -2536,7 +2544,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
@@ -2600,7 +2608,7 @@
         <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24" customHeight="1">
@@ -2608,7 +2616,7 @@
         <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="22.8" customHeight="1">
@@ -2616,7 +2624,7 @@
         <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
@@ -2685,18 +2693,18 @@
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2806,10 +2814,10 @@
         <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2831,7 +2839,7 @@
         <v>121</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
@@ -2924,10 +2932,10 @@
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
@@ -2938,7 +2946,7 @@
         <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
@@ -3002,7 +3010,7 @@
         <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
@@ -3033,16 +3041,16 @@
       <c r="A82" t="s">
         <v>168</v>
       </c>
-      <c r="B82" t="s">
-        <v>170</v>
+      <c r="B82" s="15" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
       <c r="A83" t="s">
         <v>169</v>
       </c>
-      <c r="B83" t="s">
-        <v>171</v>
+      <c r="B83" s="15" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
@@ -5054,55 +5062,55 @@
         <v>148</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5134,12 +5142,12 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/HupHin_ServiceRequest_Creation/Data/Config.xlsx
+++ b/HupHin_ServiceRequest_Creation/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\HupHin_Git\HupHin_ServiceRequest_Creation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59AD9A3-5D8C-4016-92BD-2A7D775F794B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C681464-8DD0-4E0C-9575-8C4E1B43B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -102,598 +102,598 @@
     <t>Client_ID</t>
   </si>
   <si>
-    <t>139368056348-9sdrvnb0pn86dtnops6qa5mpkacpjlfe.apps.googleusercontent.com</t>
-  </si>
-  <si>
     <t>Client_Secret</t>
   </si>
   <si>
-    <t>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</t>
-  </si>
-  <si>
     <t>SDMS_Cred</t>
   </si>
   <si>
+    <t>SDMS URL</t>
+  </si>
+  <si>
+    <t>https://hhtc-test.insightservicing.sg/guest/login</t>
+  </si>
+  <si>
+    <t>WhatsappURL</t>
+  </si>
+  <si>
+    <t>https://web.whatsapp.com/</t>
+  </si>
+  <si>
+    <t>WhatsappMsg_Url</t>
+  </si>
+  <si>
+    <t>https://wa.me/</t>
+  </si>
+  <si>
+    <t>TrackerPath</t>
+  </si>
+  <si>
+    <t>C:\Users\Komal\Documents\UiPath\HupHin_ServiceRequest_Creation\Data\Output\Master Tracker.xlsx</t>
+  </si>
+  <si>
+    <t>EmailTo</t>
+  </si>
+  <si>
+    <t>komalprasad.shinde.zd@fxspstg.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>EmailCC</t>
+  </si>
+  <si>
+    <t>EmailSub</t>
+  </si>
+  <si>
+    <t>EmailBody</t>
+  </si>
+  <si>
+    <t>Excp_EmailTo</t>
+  </si>
+  <si>
+    <t>Excp_emailCC</t>
+  </si>
+  <si>
+    <t>Excp_EmailSub</t>
+  </si>
+  <si>
+    <t>Exception occurred in Operations process</t>
+  </si>
+  <si>
+    <t>Excp_EmailBody</t>
+  </si>
+  <si>
+    <t>Dear user,&lt;br&gt; Exception occurred in operations process.&lt;br&gt;&lt;br&gt; For more details please see below exception message :&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Bot_Signature</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt;Regards,&lt;br&gt;&lt;b&gt;Hup Hin BOT</t>
+  </si>
+  <si>
+    <t>ProcessDate</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>MaxRetryNumber</t>
+  </si>
+  <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>ExScreenshotsFolderPath</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots</t>
+  </si>
+  <si>
+    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_GetTransactionDataError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
+  </si>
+  <si>
+    <t>Static part of logging message. Error retrieving Transaction Data.</t>
+  </si>
+  <si>
+    <t>LogMessage_Success</t>
+  </si>
+  <si>
+    <t>Transaction Successful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>LogMessage_BusinessRuleException</t>
+  </si>
+  <si>
+    <t>Business rule exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>LogMessage_ApplicationException</t>
+  </si>
+  <si>
+    <t>System exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>ExcpMsg_ConfigNotFound</t>
+  </si>
+  <si>
+    <t>Config file is missing. Please place config file in below mentioned folder:&lt;br&gt; "C:\Users\Komal\Documents\UiPath\HupHin_ServiceRequest_Creation\Data"</t>
+  </si>
+  <si>
+    <t>ExcpMsg_FolderNotfound</t>
+  </si>
+  <si>
+    <t>Folder is missing from google drive. Please place current year folder on drive under daily sales</t>
+  </si>
+  <si>
+    <t>ExcpMsg_DriveFileNotFound</t>
+  </si>
+  <si>
+    <t>Excp_Generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something went wrong. Can't proceed with operations process. </t>
+  </si>
+  <si>
+    <t>Log_LoginPageNotFound</t>
+  </si>
+  <si>
+    <t>LogMessage_IncalidCred</t>
+  </si>
+  <si>
+    <t>Invalid Credentials. Please check Username and password</t>
+  </si>
+  <si>
+    <t>Other_ExcepMsg</t>
+  </si>
+  <si>
+    <t>Something went wrong. Can't login to SDMS system.</t>
+  </si>
+  <si>
+    <t>ExcpMsg_ColumnMissing</t>
+  </si>
+  <si>
+    <t>Below manadtory columns are missing from google sheet</t>
+  </si>
+  <si>
+    <t>ExcpMsg_WhatsappLoginFail</t>
+  </si>
+  <si>
+    <t>Whatsapp login fail. Please scan QR code to login on chrome</t>
+  </si>
+  <si>
+    <t>ExcpMsg_InvalidReq</t>
+  </si>
+  <si>
+    <t>Invalid request found for below service request. Please update action column</t>
+  </si>
+  <si>
+    <t>ExcpMsg_InvalidCompany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company name is invalid. </t>
+  </si>
+  <si>
+    <t>ExcpMsg_MissingValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory Column values are missing. </t>
+  </si>
+  <si>
+    <t>ExcpMsg_VehNotFound</t>
+  </si>
+  <si>
+    <t>ExcpMsg_DriverNotFound</t>
+  </si>
+  <si>
+    <t>ExcpMsg_DriverNumberInvalid</t>
+  </si>
+  <si>
+    <t>ExcpMsg_JobNoMissing</t>
+  </si>
+  <si>
+    <t>Job number is not updated in google sheet</t>
+  </si>
+  <si>
+    <t>ExcpMsg_TrackerMissing</t>
+  </si>
+  <si>
+    <t>Status tracker is missing from designated path</t>
+  </si>
+  <si>
+    <t>ExcpMsg_JobType_Missing</t>
+  </si>
+  <si>
+    <t>Job type not found in SDMS</t>
+  </si>
+  <si>
+    <t>ExcpMsg_ItemGrpMissing</t>
+  </si>
+  <si>
+    <t>Coult no find the item group in SDMS</t>
+  </si>
+  <si>
+    <t>ExcpMsg_GsuitIssue</t>
+  </si>
+  <si>
+    <t>Can't access gsuit application. Not able to read google sheet</t>
+  </si>
+  <si>
+    <t>ExcpActionColMatch</t>
+  </si>
+  <si>
+    <t>Action column is matched with Job Status</t>
+  </si>
+  <si>
+    <t>ExcpAssetIsssue</t>
+  </si>
+  <si>
+    <t>Something is wrong while adding asset. BOT is not able to add asset due to some error</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>RetryLogin</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Timeout1</t>
+  </si>
+  <si>
+    <t>Timeout2</t>
+  </si>
+  <si>
+    <t>Timeout3</t>
+  </si>
+  <si>
+    <t>DelayAfter</t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t>GoogleFolder</t>
+  </si>
+  <si>
+    <t>SpreadSheetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Sheets - </t>
+  </si>
+  <si>
+    <t>VehicleType</t>
+  </si>
+  <si>
+    <t>Notificaion</t>
+  </si>
+  <si>
+    <t>VehicleTypeLook</t>
+  </si>
+  <si>
+    <t>Mandatory Columns</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Requestor_Number</t>
+  </si>
+  <si>
+    <t>Create_Action</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update_Action</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Cancel_Action</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>+65</t>
+  </si>
+  <si>
+    <t>RecordId_Cell</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>JobNum_Cell</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>JobStatus_Cell</t>
+  </si>
+  <si>
+    <t>BotStatus_Cell</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>PendingCol</t>
+  </si>
+  <si>
+    <t>Pending, Attendant,SUPPLIER EQUIPMENT,OTHER SERVICE / EQUIPMENT</t>
+  </si>
+  <si>
+    <t>CellNumber</t>
+  </si>
+  <si>
+    <t>Cell Number</t>
+  </si>
+  <si>
+    <t>VehicleTypeCol</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>Today_DateCell</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>TodayValue</t>
+  </si>
+  <si>
+    <t>BotStatusColName</t>
+  </si>
+  <si>
+    <t>BOT STATUS</t>
+  </si>
+  <si>
+    <t>ActionCol</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>ActionStatus</t>
+  </si>
+  <si>
+    <t>ScreenshotPath</t>
+  </si>
+  <si>
+    <t>DateCol</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>RetryForCustomerName</t>
+  </si>
+  <si>
+    <t>FirstColumn</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>ExcpMsg_datenotFound</t>
+  </si>
+  <si>
+    <t>Could not find mentioned date on portal for assigning driver</t>
+  </si>
+  <si>
+    <t>UpdateReq_Text</t>
+  </si>
+  <si>
+    <t>CancelReq_Text</t>
+  </si>
+  <si>
+    <t>Vehicle number not found in SDMS</t>
+  </si>
+  <si>
+    <t>Driver number is not on whatsapp</t>
+  </si>
+  <si>
     <t>Ops_SdmsCred</t>
   </si>
   <si>
+    <t>Hup Hin Operations Data has been processed successfully</t>
+  </si>
+  <si>
+    <t>SDMS Login failed due to some error</t>
+  </si>
+  <si>
+    <t>C:\Users\Finance Laptop\Documents\ExceptionScreenshot</t>
+  </si>
+  <si>
+    <t>Current month file is missing from google drive current year folder. Please place spreadsheet under Daily sales-&gt;Current year folder-&gt;</t>
+  </si>
+  <si>
+    <t>EmailBody1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear user,&lt;br&gt; BOT has processed </t>
+  </si>
+  <si>
+    <t>records from google sheet successfully.&lt;br&gt; Please see the google sheet for more details.&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Bot_TimeCell</t>
+  </si>
+  <si>
+    <t>Following Vehicle name not present in google sheet</t>
+  </si>
+  <si>
+    <t>ExcpMsg_VehNameNotPresent</t>
+  </si>
+  <si>
+    <t>Process Record</t>
+  </si>
+  <si>
+    <t>ROUGH TERRAIN</t>
+  </si>
+  <si>
+    <t>MOBILE CRANE</t>
+  </si>
+  <si>
+    <t>CRAWLER CRANE</t>
+  </si>
+  <si>
+    <t>TOW TRUCK</t>
+  </si>
+  <si>
+    <t>LORRY CRANE</t>
+  </si>
+  <si>
+    <t>PRIME MOVER</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>These vehicle type BOT will not prcess</t>
+  </si>
+  <si>
+    <t>Name of all vehicle types present in google sheet</t>
+  </si>
+  <si>
+    <t>MOBILE CRANE,ATTENDANT,ROUGH TERRAIN,CRAWLER CRANE, TOW TRUCK,LORRY CRANE,PRIME MOVER,SUPPLIER EQUIPMENT,OTHER SERVICE / EQUIPMENT, PENDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver name not found in SDMS. </t>
+  </si>
+  <si>
+    <t>Provide date in 'MM/dd/yyyy format</t>
+  </si>
+  <si>
+    <t>ACTION,VEH NO,DRIVER,TERM,TEL NO,START,END,TYPE,CUSTOMER,JOB SITE 1,SITE 1 CON,SITE 1 NO</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg</t>
+  </si>
+  <si>
+    <t>Edit button not found while assigning driver</t>
+  </si>
+  <si>
+    <t>ExcpMsg_EditButton</t>
+  </si>
+  <si>
+    <t>THIS ORDER HAS BEEN UPDATED</t>
+  </si>
+  <si>
+    <t>THIS ORDER HAS BEEN CANCELED</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>164708840988-0rf53fhavr3iugtbprrfkjoor90ggq8n.apps.googleusercontent.com</t>
+  </si>
+  <si>
+    <t>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</t>
+  </si>
+  <si>
+    <t>My Data</t>
+  </si>
+  <si>
+    <t>ExcpMsg_QuotaExceed</t>
+  </si>
+  <si>
+    <t>Quota Exceeded for writing data to google sheet. Please wait for some time and Run BOT again</t>
+  </si>
+  <si>
+    <t>1NUs_OnZd5pJKIeOQhJNPVga7wE0LFcgU</t>
+  </si>
+  <si>
     <t>DailySaleFolder_ID</t>
-  </si>
-  <si>
-    <t>1Yo08BpSHfxYVpqFEZzOF7f2ttDnhb8aY</t>
-  </si>
-  <si>
-    <t>SDMS URL</t>
-  </si>
-  <si>
-    <t>https://hhtc.insightservicing.sg</t>
-  </si>
-  <si>
-    <t>https://hhtc-test.insightservicing.sg/guest/login</t>
-  </si>
-  <si>
-    <t>WhatsappURL</t>
-  </si>
-  <si>
-    <t>https://web.whatsapp.com/</t>
-  </si>
-  <si>
-    <t>WhatsappMsg_Url</t>
-  </si>
-  <si>
-    <t>https://wa.me/</t>
-  </si>
-  <si>
-    <t>TrackerPath</t>
-  </si>
-  <si>
-    <t>C:\Users\Komal\Documents\UiPath\HupHin_ServiceRequest_Creation\Data\Output\Master Tracker.xlsx</t>
-  </si>
-  <si>
-    <t>EmailTo</t>
-  </si>
-  <si>
-    <t>komalprasad.shinde.zd@fxspstg.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>EmailCC</t>
-  </si>
-  <si>
-    <t>EmailSub</t>
-  </si>
-  <si>
-    <t>Hup Hin Operations Data has been processed successfully</t>
-  </si>
-  <si>
-    <t>EmailBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear user,&lt;br&gt; BOT has processed </t>
-  </si>
-  <si>
-    <t>EmailBody1</t>
-  </si>
-  <si>
-    <t>records from google sheet successfully.&lt;br&gt; Please see the google sheet for more details.&lt;br&gt;&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Excp_EmailTo</t>
-  </si>
-  <si>
-    <t>Excp_emailCC</t>
-  </si>
-  <si>
-    <t>Excp_EmailSub</t>
-  </si>
-  <si>
-    <t>Exception occurred in Operations process</t>
-  </si>
-  <si>
-    <t>Excp_EmailBody</t>
-  </si>
-  <si>
-    <t>Dear user,&lt;br&gt; Exception occurred in operations process.&lt;br&gt;&lt;br&gt; For more details please see below exception message :&lt;br&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Bot_Signature</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;&lt;br&gt;Regards,&lt;br&gt;&lt;b&gt;Hup Hin BOT</t>
-  </si>
-  <si>
-    <t>ProcessDate</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>Provide date in 'MM/dd/yyyy format</t>
-  </si>
-  <si>
-    <t>MaxRetryNumber</t>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
-  </si>
-  <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Successful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>LogMessage_BusinessRuleException</t>
-  </si>
-  <si>
-    <t>Business rule exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t>System exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>ExcpMsg_ConfigNotFound</t>
-  </si>
-  <si>
-    <t>Config file is missing. Please place config file in below mentioned folder:&lt;br&gt; "C:\Users\Komal\Documents\UiPath\HupHin_ServiceRequest_Creation\Data"</t>
-  </si>
-  <si>
-    <t>ExcpMsg_FolderNotfound</t>
-  </si>
-  <si>
-    <t>Folder is missing from google drive. Please place current year folder on drive under daily sales</t>
-  </si>
-  <si>
-    <t>ExcpMsg_DriveFileNotFound</t>
-  </si>
-  <si>
-    <t>Current month file is missing from google drive current year folder. Please place spreadsheet under Daily sales-&gt;Current year folder-&gt;</t>
-  </si>
-  <si>
-    <t>Excp_Generic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Something went wrong. Can't proceed with operations process. </t>
-  </si>
-  <si>
-    <t>Log_LoginPageNotFound</t>
-  </si>
-  <si>
-    <t>SDMS Login failed due to some error</t>
-  </si>
-  <si>
-    <t>LogMessage_IncalidCred</t>
-  </si>
-  <si>
-    <t>Invalid Credentials. Please check Username and password</t>
-  </si>
-  <si>
-    <t>Other_ExcepMsg</t>
-  </si>
-  <si>
-    <t>Something went wrong. Can't login to SDMS system.</t>
-  </si>
-  <si>
-    <t>ExcpMsg_ColumnMissing</t>
-  </si>
-  <si>
-    <t>Below manadtory columns are missing from google sheet</t>
-  </si>
-  <si>
-    <t>ExcpMsg_WhatsappLoginFail</t>
-  </si>
-  <si>
-    <t>Whatsapp login fail. Please scan QR code to login on chrome</t>
-  </si>
-  <si>
-    <t>ExcpMsg_InvalidReq</t>
-  </si>
-  <si>
-    <t>Invalid request found for below service request. Please update action column</t>
-  </si>
-  <si>
-    <t>ExcpMsg_InvalidCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company name is invalid. </t>
-  </si>
-  <si>
-    <t>ExcpMsg_MissingValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory Column values are missing. </t>
-  </si>
-  <si>
-    <t>ExcpMsg_VehNotFound</t>
-  </si>
-  <si>
-    <t>Vehicle number not found in SDMS</t>
-  </si>
-  <si>
-    <t>ExcpMsg_DriverNotFound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver name not found in SDMS. </t>
-  </si>
-  <si>
-    <t>ExcpMsg_DriverNumberInvalid</t>
-  </si>
-  <si>
-    <t>Driver number is not on whatsapp</t>
-  </si>
-  <si>
-    <t>ExcpMsg_JobNoMissing</t>
-  </si>
-  <si>
-    <t>Job number is not updated in google sheet</t>
-  </si>
-  <si>
-    <t>ExcpMsg_TrackerMissing</t>
-  </si>
-  <si>
-    <t>Status tracker is missing from designated path</t>
-  </si>
-  <si>
-    <t>ExcpMsg_JobType_Missing</t>
-  </si>
-  <si>
-    <t>Job type not found in SDMS</t>
-  </si>
-  <si>
-    <t>ExcpMsg_ItemGrpMissing</t>
-  </si>
-  <si>
-    <t>Coult no find the item group in SDMS</t>
-  </si>
-  <si>
-    <t>ExcpMsg_GsuitIssue</t>
-  </si>
-  <si>
-    <t>Can't access gsuit application. Not able to read google sheet</t>
-  </si>
-  <si>
-    <t>ExcpActionColMatch</t>
-  </si>
-  <si>
-    <t>Action column is matched with Job Status</t>
-  </si>
-  <si>
-    <t>ExcpAssetIsssue</t>
-  </si>
-  <si>
-    <t>Something is wrong while adding asset. BOT is not able to add asset due to some error</t>
-  </si>
-  <si>
-    <t>ExcpMsg_datenotFound</t>
-  </si>
-  <si>
-    <t>Could not find mentioned date on portal for assigning driver</t>
-  </si>
-  <si>
-    <t>ExcpMsg_VehNameNotPresent</t>
-  </si>
-  <si>
-    <t>Following Vehicle name not present in google sheet</t>
-  </si>
-  <si>
-    <t>ExcpMsg_EditButton</t>
-  </si>
-  <si>
-    <t>Edit button not found while assigning driver</t>
-  </si>
-  <si>
-    <t>ExcpMsg_DailySalesFoldMissing</t>
-  </si>
-  <si>
-    <t>Daily Sales folder is missing from google drive</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>RetryLogin</t>
-  </si>
-  <si>
-    <t>Timeout</t>
-  </si>
-  <si>
-    <t>Timeout1</t>
-  </si>
-  <si>
-    <t>Timeout2</t>
-  </si>
-  <si>
-    <t>Timeout3</t>
-  </si>
-  <si>
-    <t>DelayAfter</t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t>GoogleFolder</t>
-  </si>
-  <si>
-    <t>Daily Sales</t>
-  </si>
-  <si>
-    <t>SpreadSheetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Sheets - </t>
-  </si>
-  <si>
-    <t>VehicleType</t>
-  </si>
-  <si>
-    <t>MOBILE CRANE,ATTENDANT,ROUGH TERRAIN,CRAWLER CRANE, TOW TRUCK,LORRY CRANE,PRIME MOVER,SUPPLIER EQUIPMENT,OTHER SERVICE / EQUIPMENT, PENDING</t>
-  </si>
-  <si>
-    <t>Name of all vehicle types present in google sheet</t>
-  </si>
-  <si>
-    <t>Notificaion</t>
-  </si>
-  <si>
-    <t>VehicleTypeLook</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Mandatory Columns</t>
-  </si>
-  <si>
-    <t>ACTION,VEH NO,DRIVER,TERM,TEL NO,START,END,TYPE,CUSTOMER,JOB SITE 1,SITE 1 CON,SITE 1 NO</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Requestor_Number</t>
-  </si>
-  <si>
-    <t>Create_Action</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Update_Action</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Cancel_Action</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>CountryCode</t>
-  </si>
-  <si>
-    <t>+65</t>
-  </si>
-  <si>
-    <t>RecordId_Cell</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>JobNum_Cell</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>JobStatus_Cell</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>BotStatus_Cell</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>Bot_TimeCell</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>PendingCol</t>
-  </si>
-  <si>
-    <t>Pending, Attendant,SUPPLIER EQUIPMENT,OTHER SERVICE / EQUIPMENT</t>
-  </si>
-  <si>
-    <t>These vehicle type BOT will not prcess</t>
-  </si>
-  <si>
-    <t>CellNumber</t>
-  </si>
-  <si>
-    <t>Cell Number</t>
-  </si>
-  <si>
-    <t>VehicleTypeCol</t>
-  </si>
-  <si>
-    <t>Vehicle Type</t>
-  </si>
-  <si>
-    <t>Today_DateCell</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>TodayValue</t>
-  </si>
-  <si>
-    <t>BotStatusColName</t>
-  </si>
-  <si>
-    <t>BOT STATUS</t>
-  </si>
-  <si>
-    <t>ActionCol</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>ActionStatus</t>
-  </si>
-  <si>
-    <t>ScreenshotPath</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\ExceptionScreenshot</t>
-  </si>
-  <si>
-    <t>DateCol</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>RetryForCustomerName</t>
-  </si>
-  <si>
-    <t>FirstColumn</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>UpdateReq_Text</t>
-  </si>
-  <si>
-    <t>THIS ORDER HAS BEEN UPDATED</t>
-  </si>
-  <si>
-    <t>CancelReq_Text</t>
-  </si>
-  <si>
-    <t>THIS ORDER HAS BEEN CANCELED</t>
-  </si>
-  <si>
-    <t>Asset</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>Process Record</t>
-  </si>
-  <si>
-    <t>MOBILE CRANE</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ROUGH TERRAIN</t>
-  </si>
-  <si>
-    <t>CRAWLER CRANE</t>
-  </si>
-  <si>
-    <t>TOW TRUCK</t>
-  </si>
-  <si>
-    <t>LORRY CRANE</t>
-  </si>
-  <si>
-    <t>PRIME MOVER</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>SheetName</t>
@@ -1159,11 +1159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -1243,144 +1243,144 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="41.25" customHeight="1">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="41.25" customHeight="1">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.5" customHeight="1">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2361,10 +2361,10 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" tooltip="https://hhtc.insightservicing.sg/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B11" r:id="rId4" tooltip="https://hhtc.insightservicing.sg/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D11" r:id="rId2" tooltip="https://hhtc.insightservicing.sg/" display="https://hhtc.insightservicing.sg/" xr:uid="{9DECC8E1-963F-4F0E-9ED6-7BB59D349BDE}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{22B63AC4-5A18-49A4-9E1C-BE72EA17D8AF}"/>
+    <hyperlink ref="B11" r:id="rId4" tooltip="https://hhtc.insightservicing.sg/" display="https://hhtc.insightservicing.sg/" xr:uid="{002415CE-4BF5-452E-90F0-13B3A95A8B1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -2373,13 +2373,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -2423,350 +2423,350 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="45" customHeight="1">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="57.75" customHeight="1">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="57.75" customHeight="1">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="57.75" customHeight="1">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="19.2" customHeight="1">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24" customHeight="1">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="22.95" customHeight="1">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B44">
         <v>5000</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B45">
         <v>10000</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B46">
         <v>1000</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B47">
         <v>3000</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B48">
         <v>2000</v>
@@ -2814,13 +2814,13 @@
     </row>
     <row r="49" spans="1:3" ht="45" customHeight="1">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.4" customHeight="1">
@@ -2828,271 +2828,271 @@
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="63" customHeight="1">
       <c r="A54" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="63" customHeight="1">
-      <c r="A55" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>116</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" t="s">
-        <v>146</v>
+        <v>119</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>148</v>
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" t="s">
-        <v>150</v>
+        <v>122</v>
+      </c>
+      <c r="B60">
+        <v>62621525</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61">
-        <v>62621525</v>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
+        <v>129</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>159</v>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B76" t="s">
-        <v>46</v>
+        <v>147</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>184</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>185</v>
+        <v>151</v>
+      </c>
+      <c r="B78" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B79" s="9" t="b">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B80" t="s">
-        <v>188</v>
+        <v>153</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>189</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>190</v>
+        <v>155</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B83" t="s">
-        <v>193</v>
+        <v>163</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>196</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>197</v>
+        <v>210</v>
+      </c>
+      <c r="B85" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
@@ -4022,7 +4022,6 @@
     <row r="1010" ht="14.25" customHeight="1"/>
     <row r="1011" ht="14.25" customHeight="1"/>
     <row r="1012" ht="14.25" customHeight="1"/>
-    <row r="1013" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4036,7 +4035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.109375" customWidth="1"/>
@@ -4049,13 +4048,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -5101,58 +5100,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5184,12 +5183,12 @@
   <sheetData>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
